--- a/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -11,6 +11,7 @@
     <sheet state="visible" name="nodes" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="groups" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="publications" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="localConventions" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="942">
   <si>
     <t>id</t>
   </si>
@@ -2813,13 +2814,85 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/4044909/</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>namespace</t>
+  </si>
+  <si>
+    <t>UBERON</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UBERON_</t>
+  </si>
+  <si>
+    <t>CHEBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_</t>
+  </si>
+  <si>
+    <t>FMA</t>
+  </si>
+  <si>
+    <t>http://purl.org/sig/ont/fma/fma</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GO_</t>
+  </si>
+  <si>
+    <t>ILX</t>
+  </si>
+  <si>
+    <t>http://uri.interlex.org/base/ilx_</t>
+  </si>
+  <si>
+    <t>NLX</t>
+  </si>
+  <si>
+    <t>http://uri.neuinfo.org/nif/nifstd/nlx_</t>
+  </si>
+  <si>
+    <t>SAO</t>
+  </si>
+  <si>
+    <t>http://uri.neuinfo.org/nif/nifstd/sao</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/</t>
+  </si>
+  <si>
+    <t>EMAPA</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EMAPA_</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CL_</t>
+  </si>
+  <si>
+    <t>NCBITaxon</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2898,6 +2971,21 @@
       <u/>
       <color rgb="FF1155CC"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2925,7 +3013,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -2938,11 +3026,25 @@
         <color rgb="FF000000"/>
       </top>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3195,6 +3297,21 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3232,6 +3349,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -11166,4 +11287,416 @@
   </hyperlinks>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="84" t="s">
+        <v>918</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>919</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>921</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="s">
+        <v>922</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>923</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>927</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="s">
+        <v>928</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>929</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>931</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
+        <v>932</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>933</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>935</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="s">
+        <v>936</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>937</v>
+      </c>
+      <c r="C10" s="86"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="s">
+        <v>938</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>939</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>941</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+  </hyperlinks>
+  <drawing r:id="rId12"/>
+</worksheet>
 </file>
--- a/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -2892,7 +2892,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2963,10 +2963,6 @@
       <color rgb="FF660E7A"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
@@ -3044,7 +3040,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3240,12 +3236,6 @@
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -3261,31 +3251,13 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -3294,22 +3266,22 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3570,7 +3542,6 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -3664,13 +3635,6 @@
       <c r="P1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
@@ -3697,13 +3661,6 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
@@ -3730,13 +3687,6 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
@@ -3763,13 +3713,6 @@
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
@@ -3800,13 +3743,6 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
@@ -3837,13 +3773,6 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
@@ -3870,13 +3799,6 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
@@ -3905,13 +3827,6 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
@@ -3940,13 +3855,6 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
@@ -3975,13 +3883,6 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
@@ -4010,13 +3911,6 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
@@ -4045,13 +3939,6 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
@@ -4080,13 +3967,6 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
@@ -4110,13 +3990,6 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
@@ -4141,13 +4014,6 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
@@ -4172,13 +4038,6 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
@@ -4203,13 +4062,6 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
@@ -4234,13 +4086,6 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
@@ -4265,13 +4110,6 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
@@ -4296,13 +4134,6 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
@@ -4327,13 +4158,6 @@
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
@@ -4358,13 +4182,6 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
@@ -4389,13 +4206,6 @@
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
@@ -4420,13 +4230,6 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
@@ -4451,13 +4254,6 @@
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
@@ -4482,13 +4278,6 @@
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
@@ -4513,13 +4302,6 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
@@ -4544,13 +4326,6 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
@@ -4575,13 +4350,6 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
@@ -4606,13 +4374,6 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
@@ -4637,13 +4398,6 @@
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
@@ -4668,13 +4422,6 @@
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
@@ -4699,13 +4446,6 @@
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
@@ -4730,13 +4470,6 @@
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
@@ -4761,13 +4494,6 @@
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
@@ -4792,13 +4518,6 @@
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
@@ -4823,13 +4542,6 @@
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
@@ -4854,13 +4566,6 @@
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
@@ -4885,13 +4590,6 @@
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
@@ -4916,13 +4614,6 @@
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
@@ -4947,13 +4638,6 @@
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
@@ -4982,13 +4666,6 @@
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
@@ -5021,13 +4698,6 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
@@ -5056,13 +4726,6 @@
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
@@ -5091,13 +4754,6 @@
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
       <c r="P45" s="35"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
@@ -5128,13 +4784,6 @@
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
       <c r="P46" s="35"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
@@ -5165,13 +4814,6 @@
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
       <c r="P47" s="35"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
@@ -5202,13 +4844,6 @@
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
       <c r="P48" s="35"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
@@ -5239,13 +4874,6 @@
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
       <c r="P49" s="35"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
@@ -5275,13 +4903,6 @@
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
@@ -5311,13 +4932,6 @@
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
@@ -5344,13 +4958,6 @@
       <c r="N52" s="15"/>
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
@@ -5375,13 +4982,6 @@
       <c r="N53" s="15"/>
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
@@ -5408,13 +5008,6 @@
       <c r="N54" s="15"/>
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
@@ -5439,13 +5032,6 @@
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
       <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
@@ -5470,13 +5056,6 @@
       <c r="N56" s="17"/>
       <c r="O56" s="15"/>
       <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="15"/>
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
@@ -5501,13 +5080,6 @@
       <c r="N57" s="17"/>
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
@@ -5532,13 +5104,6 @@
       <c r="N58" s="17"/>
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
@@ -5563,13 +5128,6 @@
       <c r="N59" s="17"/>
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
     </row>
     <row r="60">
       <c r="A60" s="16" t="s">
@@ -5600,13 +5158,6 @@
       <c r="P60" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
     </row>
     <row r="61">
       <c r="A61" s="17" t="s">
@@ -5633,13 +5184,6 @@
       <c r="N61" s="17"/>
       <c r="O61" s="15"/>
       <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
     </row>
     <row r="62">
       <c r="A62" s="38" t="s">
@@ -5670,13 +5214,6 @@
       <c r="N62" s="17"/>
       <c r="O62" s="15"/>
       <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
     </row>
     <row r="63">
       <c r="A63" s="35" t="s">
@@ -5705,13 +5242,6 @@
       <c r="N63" s="17"/>
       <c r="O63" s="15"/>
       <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
     </row>
     <row r="64">
       <c r="A64" s="35" t="s">
@@ -5736,13 +5266,6 @@
       <c r="N64" s="17"/>
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
     </row>
     <row r="65">
       <c r="A65" s="35" t="s">
@@ -5767,13 +5290,6 @@
       <c r="N65" s="17"/>
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
     </row>
     <row r="66">
       <c r="A66" s="35" t="s">
@@ -5798,13 +5314,6 @@
       <c r="N66" s="15"/>
       <c r="O66" s="15"/>
       <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
     </row>
     <row r="67">
       <c r="A67" s="35" t="s">
@@ -5829,13 +5338,6 @@
       <c r="N67" s="15"/>
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="15"/>
     </row>
     <row r="68">
       <c r="A68" s="35" t="s">
@@ -5860,13 +5362,6 @@
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
     </row>
     <row r="69">
       <c r="A69" s="35" t="s">
@@ -5891,13 +5386,6 @@
       <c r="N69" s="15"/>
       <c r="O69" s="15"/>
       <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="15"/>
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
@@ -5922,13 +5410,6 @@
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
       <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
-      <c r="U70" s="15"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="15"/>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
@@ -5953,13 +5434,6 @@
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
       <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="15"/>
     </row>
     <row r="72">
       <c r="A72" s="12" t="s">
@@ -5984,13 +5458,6 @@
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
       <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
@@ -6015,13 +5482,6 @@
       <c r="N73" s="15"/>
       <c r="O73" s="15"/>
       <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="15"/>
     </row>
     <row r="74">
       <c r="A74" s="12" t="s">
@@ -6046,13 +5506,6 @@
       <c r="N74" s="15"/>
       <c r="O74" s="15"/>
       <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="15"/>
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
@@ -6077,13 +5530,6 @@
       <c r="N75" s="15"/>
       <c r="O75" s="15"/>
       <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
     </row>
     <row r="76">
       <c r="A76" s="12" t="s">
@@ -6108,13 +5554,6 @@
       <c r="N76" s="15"/>
       <c r="O76" s="15"/>
       <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="15"/>
-      <c r="W76" s="15"/>
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
@@ -6139,13 +5578,6 @@
       <c r="N77" s="15"/>
       <c r="O77" s="15"/>
       <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="15"/>
     </row>
     <row r="78">
       <c r="A78" s="12" t="s">
@@ -6170,13 +5602,6 @@
       <c r="N78" s="15"/>
       <c r="O78" s="15"/>
       <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-      <c r="W78" s="15"/>
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
@@ -6201,13 +5626,6 @@
       <c r="N79" s="15"/>
       <c r="O79" s="15"/>
       <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="15"/>
-      <c r="V79" s="15"/>
-      <c r="W79" s="15"/>
     </row>
     <row r="80">
       <c r="A80" s="12" t="s">
@@ -6232,13 +5650,6 @@
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
       <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
-      <c r="U80" s="15"/>
-      <c r="V80" s="15"/>
-      <c r="W80" s="15"/>
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
@@ -6263,13 +5674,6 @@
       <c r="N81" s="15"/>
       <c r="O81" s="15"/>
       <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="15"/>
     </row>
     <row r="82">
       <c r="A82" s="12" t="s">
@@ -6294,13 +5698,6 @@
       <c r="N82" s="15"/>
       <c r="O82" s="15"/>
       <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="15"/>
     </row>
     <row r="83">
       <c r="A83" s="12" t="s">
@@ -6325,13 +5722,6 @@
       <c r="N83" s="15"/>
       <c r="O83" s="15"/>
       <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-      <c r="T83" s="15"/>
-      <c r="U83" s="15"/>
-      <c r="V83" s="15"/>
-      <c r="W83" s="15"/>
     </row>
     <row r="84">
       <c r="A84" s="12" t="s">
@@ -6356,13 +5746,6 @@
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
       <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="15"/>
-      <c r="W84" s="15"/>
     </row>
     <row r="85">
       <c r="A85" s="12" t="s">
@@ -6387,13 +5770,6 @@
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
       <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
-      <c r="W85" s="15"/>
     </row>
     <row r="86">
       <c r="A86" s="12" t="s">
@@ -6418,13 +5794,6 @@
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
       <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
@@ -6449,13 +5818,6 @@
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
       <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
-      <c r="U87" s="15"/>
-      <c r="V87" s="15"/>
-      <c r="W87" s="15"/>
     </row>
     <row r="88">
       <c r="A88" s="12" t="s">
@@ -6480,13 +5842,6 @@
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
       <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
-      <c r="U88" s="15"/>
-      <c r="V88" s="15"/>
-      <c r="W88" s="15"/>
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
@@ -6511,13 +5866,6 @@
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
       <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
-      <c r="U89" s="15"/>
-      <c r="V89" s="15"/>
-      <c r="W89" s="15"/>
     </row>
     <row r="90">
       <c r="A90" s="12" t="s">
@@ -6542,13 +5890,6 @@
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
       <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="V90" s="15"/>
-      <c r="W90" s="15"/>
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
@@ -6573,13 +5914,6 @@
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
       <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
-      <c r="U91" s="15"/>
-      <c r="V91" s="15"/>
-      <c r="W91" s="15"/>
     </row>
     <row r="92">
       <c r="A92" s="12" t="s">
@@ -6604,13 +5938,6 @@
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
       <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
-      <c r="U92" s="15"/>
-      <c r="V92" s="15"/>
-      <c r="W92" s="15"/>
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
@@ -6635,13 +5962,6 @@
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
       <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="15"/>
-      <c r="S93" s="15"/>
-      <c r="T93" s="15"/>
-      <c r="U93" s="15"/>
-      <c r="V93" s="15"/>
-      <c r="W93" s="15"/>
     </row>
     <row r="94">
       <c r="A94" s="12" t="s">
@@ -6666,13 +5986,6 @@
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
       <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="15"/>
-      <c r="S94" s="15"/>
-      <c r="T94" s="15"/>
-      <c r="U94" s="15"/>
-      <c r="V94" s="15"/>
-      <c r="W94" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -7798,7 +7111,7 @@
       <c r="C3" s="64" t="s">
         <v>504</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="27" t="s">
         <v>505</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -7852,13 +7165,13 @@
       <c r="C5" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="27" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="58"/>
       <c r="H5" s="2"/>
       <c r="I5" s="14"/>
@@ -7877,13 +7190,13 @@
       <c r="C6" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="27" t="s">
         <v>148</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F6" s="66"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="58"/>
       <c r="H6" s="2"/>
       <c r="I6" s="14"/>
@@ -7931,7 +7244,7 @@
       <c r="C8" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="2" t="s">
         <v>400</v>
       </c>
@@ -7962,7 +7275,7 @@
       <c r="C9" s="44" t="s">
         <v>522</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="2" t="s">
         <v>403</v>
       </c>
@@ -7991,7 +7304,7 @@
       <c r="C10" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="D10" s="67"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="2" t="s">
         <v>404</v>
       </c>
@@ -8004,10 +7317,10 @@
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="66" t="s">
         <v>533</v>
       </c>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="67" t="s">
         <v>534</v>
       </c>
       <c r="M10" s="15"/>
@@ -8022,7 +7335,7 @@
       <c r="C11" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="2" t="s">
         <v>526</v>
       </c>
@@ -8035,10 +7348,10 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="66" t="s">
         <v>538</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="67" t="s">
         <v>539</v>
       </c>
       <c r="M11" s="15"/>
@@ -8050,10 +7363,10 @@
       <c r="B12" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="68" t="s">
         <v>522</v>
       </c>
-      <c r="D12" s="67"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="2" t="s">
         <v>407</v>
       </c>
@@ -8064,10 +7377,10 @@
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="68">
+      <c r="K12" s="66">
         <v>0.0</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="67" t="s">
         <v>40</v>
       </c>
       <c r="M12" s="15"/>
@@ -8079,10 +7392,10 @@
       <c r="B13" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="2" t="s">
         <v>408</v>
       </c>
@@ -8095,10 +7408,10 @@
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="67" t="s">
         <v>545</v>
       </c>
       <c r="M13" s="15"/>
@@ -8110,10 +7423,10 @@
       <c r="B14" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="2" t="s">
         <v>408</v>
       </c>
@@ -8126,10 +7439,10 @@
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="68" t="s">
+      <c r="K14" s="66" t="s">
         <v>549</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="67" t="s">
         <v>550</v>
       </c>
       <c r="M14" s="15"/>
@@ -8141,10 +7454,10 @@
       <c r="B15" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="2" t="s">
         <v>548</v>
       </c>
@@ -8157,10 +7470,10 @@
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="68" t="s">
+      <c r="K15" s="66" t="s">
         <v>554</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="67" t="s">
         <v>555</v>
       </c>
       <c r="M15" s="15"/>
@@ -8172,10 +7485,10 @@
       <c r="B16" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D16" s="67"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="2" t="s">
         <v>548</v>
       </c>
@@ -8188,10 +7501,10 @@
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="68" t="s">
+      <c r="K16" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="L16" s="69" t="s">
+      <c r="L16" s="67" t="s">
         <v>555</v>
       </c>
       <c r="M16" s="15"/>
@@ -8203,10 +7516,10 @@
       <c r="B17" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D17" s="67"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="2" t="s">
         <v>548</v>
       </c>
@@ -8219,10 +7532,10 @@
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="68" t="s">
+      <c r="K17" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="L17" s="69" t="s">
+      <c r="L17" s="67" t="s">
         <v>555</v>
       </c>
       <c r="M17" s="15"/>
@@ -8234,10 +7547,10 @@
       <c r="B18" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D18" s="67"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="2" t="s">
         <v>548</v>
       </c>
@@ -8250,10 +7563,10 @@
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="68" t="s">
+      <c r="K18" s="66" t="s">
         <v>567</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="67" t="s">
         <v>555</v>
       </c>
       <c r="M18" s="15"/>
@@ -8265,10 +7578,10 @@
       <c r="B19" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="68" t="s">
         <v>522</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="2" t="s">
         <v>411</v>
       </c>
@@ -8279,10 +7592,10 @@
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="68">
+      <c r="K19" s="66">
         <v>0.0</v>
       </c>
-      <c r="L19" s="69" t="s">
+      <c r="L19" s="67" t="s">
         <v>45</v>
       </c>
       <c r="M19" s="15"/>
@@ -8294,10 +7607,10 @@
       <c r="B20" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D20" s="67"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="2" t="s">
         <v>412</v>
       </c>
@@ -8310,10 +7623,10 @@
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="68" t="s">
+      <c r="K20" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="67" t="s">
         <v>572</v>
       </c>
       <c r="M20" s="15"/>
@@ -8325,10 +7638,10 @@
       <c r="B21" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D21" s="67"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="2" t="s">
         <v>412</v>
       </c>
@@ -8341,10 +7654,10 @@
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="68" t="s">
+      <c r="K21" s="66" t="s">
         <v>549</v>
       </c>
-      <c r="L21" s="69" t="s">
+      <c r="L21" s="67" t="s">
         <v>576</v>
       </c>
       <c r="M21" s="15"/>
@@ -8356,10 +7669,10 @@
       <c r="B22" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D22" s="67"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="2" t="s">
         <v>575</v>
       </c>
@@ -8372,10 +7685,10 @@
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="68" t="s">
+      <c r="K22" s="66" t="s">
         <v>554</v>
       </c>
-      <c r="L22" s="69" t="s">
+      <c r="L22" s="67" t="s">
         <v>580</v>
       </c>
       <c r="M22" s="15"/>
@@ -8387,10 +7700,10 @@
       <c r="B23" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="2" t="s">
         <v>575</v>
       </c>
@@ -8403,10 +7716,10 @@
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="68" t="s">
+      <c r="K23" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="L23" s="69" t="s">
+      <c r="L23" s="67" t="s">
         <v>580</v>
       </c>
       <c r="M23" s="15"/>
@@ -8418,10 +7731,10 @@
       <c r="B24" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="2" t="s">
         <v>575</v>
       </c>
@@ -8434,10 +7747,10 @@
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="68" t="s">
+      <c r="K24" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="L24" s="69" t="s">
+      <c r="L24" s="67" t="s">
         <v>580</v>
       </c>
       <c r="M24" s="15"/>
@@ -8449,10 +7762,10 @@
       <c r="B25" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="2" t="s">
         <v>575</v>
       </c>
@@ -8465,10 +7778,10 @@
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="68" t="s">
+      <c r="K25" s="66" t="s">
         <v>567</v>
       </c>
-      <c r="L25" s="69" t="s">
+      <c r="L25" s="67" t="s">
         <v>580</v>
       </c>
       <c r="M25" s="15"/>
@@ -8480,10 +7793,10 @@
       <c r="B26" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="68" t="s">
         <v>522</v>
       </c>
-      <c r="D26" s="67"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="2" t="s">
         <v>415</v>
       </c>
@@ -8494,10 +7807,10 @@
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="68">
+      <c r="K26" s="66">
         <v>0.0</v>
       </c>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="67" t="s">
         <v>49</v>
       </c>
       <c r="M26" s="15"/>
@@ -8509,7 +7822,7 @@
       <c r="B27" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D27" s="14"/>
@@ -8525,10 +7838,10 @@
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="68" t="s">
+      <c r="K27" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="L27" s="67" t="s">
         <v>594</v>
       </c>
       <c r="M27" s="15"/>
@@ -8540,7 +7853,7 @@
       <c r="B28" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D28" s="14"/>
@@ -8556,10 +7869,10 @@
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="68" t="s">
+      <c r="K28" s="66" t="s">
         <v>549</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="L28" s="67" t="s">
         <v>598</v>
       </c>
       <c r="M28" s="15"/>
@@ -8571,7 +7884,7 @@
       <c r="B29" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D29" s="14"/>
@@ -8587,10 +7900,10 @@
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="68" t="s">
+      <c r="K29" s="66" t="s">
         <v>554</v>
       </c>
-      <c r="L29" s="69" t="s">
+      <c r="L29" s="67" t="s">
         <v>602</v>
       </c>
       <c r="M29" s="15"/>
@@ -8602,7 +7915,7 @@
       <c r="B30" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D30" s="14"/>
@@ -8618,10 +7931,10 @@
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="68" t="s">
+      <c r="K30" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="L30" s="69" t="s">
+      <c r="L30" s="67" t="s">
         <v>602</v>
       </c>
       <c r="M30" s="15"/>
@@ -8633,7 +7946,7 @@
       <c r="B31" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D31" s="14"/>
@@ -8649,10 +7962,10 @@
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="68" t="s">
+      <c r="K31" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="L31" s="69" t="s">
+      <c r="L31" s="67" t="s">
         <v>602</v>
       </c>
       <c r="M31" s="15"/>
@@ -8664,7 +7977,7 @@
       <c r="B32" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D32" s="14"/>
@@ -8680,10 +7993,10 @@
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="68" t="s">
+      <c r="K32" s="66" t="s">
         <v>567</v>
       </c>
-      <c r="L32" s="69" t="s">
+      <c r="L32" s="67" t="s">
         <v>602</v>
       </c>
       <c r="M32" s="15"/>
@@ -8695,7 +8008,7 @@
       <c r="B33" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D33" s="14"/>
@@ -8709,10 +8022,10 @@
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="68">
+      <c r="K33" s="66">
         <v>0.0</v>
       </c>
-      <c r="L33" s="69" t="s">
+      <c r="L33" s="67" t="s">
         <v>70</v>
       </c>
       <c r="M33" s="15"/>
@@ -8724,7 +8037,7 @@
       <c r="B34" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D34" s="14"/>
@@ -8740,10 +8053,10 @@
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="68" t="s">
+      <c r="K34" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="L34" s="69" t="s">
+      <c r="L34" s="67" t="s">
         <v>616</v>
       </c>
       <c r="M34" s="15"/>
@@ -8755,7 +8068,7 @@
       <c r="B35" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D35" s="14"/>
@@ -8771,10 +8084,10 @@
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="68" t="s">
+      <c r="K35" s="66" t="s">
         <v>549</v>
       </c>
-      <c r="L35" s="69" t="s">
+      <c r="L35" s="67" t="s">
         <v>620</v>
       </c>
       <c r="M35" s="15"/>
@@ -8786,7 +8099,7 @@
       <c r="B36" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D36" s="14"/>
@@ -8802,10 +8115,10 @@
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="68" t="s">
+      <c r="K36" s="66" t="s">
         <v>554</v>
       </c>
-      <c r="L36" s="69" t="s">
+      <c r="L36" s="67" t="s">
         <v>624</v>
       </c>
       <c r="M36" s="15"/>
@@ -8817,7 +8130,7 @@
       <c r="B37" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D37" s="14"/>
@@ -8833,10 +8146,10 @@
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="68" t="s">
+      <c r="K37" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="L37" s="69" t="s">
+      <c r="L37" s="67" t="s">
         <v>624</v>
       </c>
       <c r="M37" s="15"/>
@@ -8848,7 +8161,7 @@
       <c r="B38" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D38" s="14"/>
@@ -8864,10 +8177,10 @@
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="68" t="s">
+      <c r="K38" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="L38" s="69" t="s">
+      <c r="L38" s="67" t="s">
         <v>624</v>
       </c>
       <c r="M38" s="15"/>
@@ -8879,7 +8192,7 @@
       <c r="B39" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D39" s="14"/>
@@ -8895,10 +8208,10 @@
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="68" t="s">
+      <c r="K39" s="66" t="s">
         <v>567</v>
       </c>
-      <c r="L39" s="69" t="s">
+      <c r="L39" s="67" t="s">
         <v>624</v>
       </c>
       <c r="M39" s="15"/>
@@ -8910,7 +8223,7 @@
       <c r="B40" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D40" s="14"/>
@@ -8924,10 +8237,10 @@
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="68">
+      <c r="K40" s="66">
         <v>0.0</v>
       </c>
-      <c r="L40" s="69" t="s">
+      <c r="L40" s="67" t="s">
         <v>57</v>
       </c>
       <c r="M40" s="15"/>
@@ -8939,7 +8252,7 @@
       <c r="B41" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D41" s="14"/>
@@ -8955,10 +8268,10 @@
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="68" t="s">
+      <c r="K41" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="L41" s="69" t="s">
+      <c r="L41" s="67" t="s">
         <v>638</v>
       </c>
       <c r="M41" s="15"/>
@@ -8970,7 +8283,7 @@
       <c r="B42" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D42" s="14"/>
@@ -8986,10 +8299,10 @@
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="68" t="s">
+      <c r="K42" s="66" t="s">
         <v>549</v>
       </c>
-      <c r="L42" s="69" t="s">
+      <c r="L42" s="67" t="s">
         <v>642</v>
       </c>
       <c r="M42" s="15"/>
@@ -9001,7 +8314,7 @@
       <c r="B43" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D43" s="14"/>
@@ -9017,10 +8330,10 @@
       </c>
       <c r="I43" s="14"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="68" t="s">
+      <c r="K43" s="66" t="s">
         <v>554</v>
       </c>
-      <c r="L43" s="69" t="s">
+      <c r="L43" s="67" t="s">
         <v>646</v>
       </c>
       <c r="M43" s="15"/>
@@ -9032,7 +8345,7 @@
       <c r="B44" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D44" s="14"/>
@@ -9048,10 +8361,10 @@
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="68" t="s">
+      <c r="K44" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="L44" s="69" t="s">
+      <c r="L44" s="67" t="s">
         <v>646</v>
       </c>
       <c r="M44" s="15"/>
@@ -9063,7 +8376,7 @@
       <c r="B45" s="26" t="s">
         <v>651</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D45" s="14"/>
@@ -9079,10 +8392,10 @@
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="68" t="s">
+      <c r="K45" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="L45" s="69" t="s">
+      <c r="L45" s="67" t="s">
         <v>646</v>
       </c>
       <c r="M45" s="15"/>
@@ -9094,7 +8407,7 @@
       <c r="B46" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D46" s="14"/>
@@ -9110,10 +8423,10 @@
       </c>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="68" t="s">
+      <c r="K46" s="66" t="s">
         <v>567</v>
       </c>
-      <c r="L46" s="69" t="s">
+      <c r="L46" s="67" t="s">
         <v>646</v>
       </c>
       <c r="M46" s="15"/>
@@ -9125,7 +8438,7 @@
       <c r="B47" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D47" s="14"/>
@@ -9139,10 +8452,10 @@
       </c>
       <c r="I47" s="14"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="68">
+      <c r="K47" s="66">
         <v>0.0</v>
       </c>
-      <c r="L47" s="69" t="s">
+      <c r="L47" s="67" t="s">
         <v>61</v>
       </c>
       <c r="M47" s="15"/>
@@ -9154,7 +8467,7 @@
       <c r="B48" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D48" s="14"/>
@@ -9170,10 +8483,10 @@
       </c>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="68" t="s">
+      <c r="K48" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="L48" s="69" t="s">
+      <c r="L48" s="67" t="s">
         <v>660</v>
       </c>
       <c r="M48" s="15"/>
@@ -9185,7 +8498,7 @@
       <c r="B49" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D49" s="14"/>
@@ -9201,10 +8514,10 @@
       </c>
       <c r="I49" s="14"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="68" t="s">
+      <c r="K49" s="66" t="s">
         <v>549</v>
       </c>
-      <c r="L49" s="69" t="s">
+      <c r="L49" s="67" t="s">
         <v>664</v>
       </c>
       <c r="M49" s="15"/>
@@ -9216,7 +8529,7 @@
       <c r="B50" s="26" t="s">
         <v>666</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C50" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D50" s="14"/>
@@ -9232,10 +8545,10 @@
       </c>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="68" t="s">
+      <c r="K50" s="66" t="s">
         <v>554</v>
       </c>
-      <c r="L50" s="69" t="s">
+      <c r="L50" s="67" t="s">
         <v>668</v>
       </c>
       <c r="M50" s="15"/>
@@ -9247,7 +8560,7 @@
       <c r="B51" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D51" s="14"/>
@@ -9263,10 +8576,10 @@
       </c>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="68" t="s">
+      <c r="K51" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="L51" s="69" t="s">
+      <c r="L51" s="67" t="s">
         <v>668</v>
       </c>
       <c r="M51" s="15"/>
@@ -9278,7 +8591,7 @@
       <c r="B52" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="C52" s="70" t="s">
+      <c r="C52" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D52" s="14"/>
@@ -9294,10 +8607,10 @@
       </c>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="68" t="s">
+      <c r="K52" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="L52" s="69" t="s">
+      <c r="L52" s="67" t="s">
         <v>668</v>
       </c>
       <c r="M52" s="15"/>
@@ -9309,7 +8622,7 @@
       <c r="B53" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D53" s="14"/>
@@ -9325,10 +8638,10 @@
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="68" t="s">
+      <c r="K53" s="66" t="s">
         <v>567</v>
       </c>
-      <c r="L53" s="69" t="s">
+      <c r="L53" s="67" t="s">
         <v>668</v>
       </c>
       <c r="M53" s="15"/>
@@ -9340,7 +8653,7 @@
       <c r="B54" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D54" s="14"/>
@@ -9356,8 +8669,8 @@
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="69" t="s">
+      <c r="K54" s="66"/>
+      <c r="L54" s="67" t="s">
         <v>271</v>
       </c>
       <c r="M54" s="15"/>
@@ -9369,7 +8682,7 @@
       <c r="B55" s="26" t="s">
         <v>682</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C55" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D55" s="14"/>
@@ -9385,10 +8698,10 @@
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="68">
+      <c r="K55" s="66">
         <v>7.0</v>
       </c>
-      <c r="L55" s="69" t="s">
+      <c r="L55" s="67" t="s">
         <v>148</v>
       </c>
       <c r="M55" s="15"/>
@@ -9400,7 +8713,7 @@
       <c r="B56" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="C56" s="70" t="s">
+      <c r="C56" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D56" s="14"/>
@@ -9416,10 +8729,10 @@
       </c>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="68" t="s">
+      <c r="K56" s="66" t="s">
         <v>687</v>
       </c>
-      <c r="L56" s="69" t="s">
+      <c r="L56" s="67" t="s">
         <v>688</v>
       </c>
       <c r="M56" s="15"/>
@@ -9431,7 +8744,7 @@
       <c r="B57" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D57" s="14"/>
@@ -9447,10 +8760,10 @@
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="68" t="s">
+      <c r="K57" s="66" t="s">
         <v>692</v>
       </c>
-      <c r="L57" s="69" t="s">
+      <c r="L57" s="67" t="s">
         <v>693</v>
       </c>
       <c r="M57" s="15"/>
@@ -9462,7 +8775,7 @@
       <c r="B58" s="26" t="s">
         <v>695</v>
       </c>
-      <c r="C58" s="70" t="s">
+      <c r="C58" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D58" s="14"/>
@@ -9478,10 +8791,10 @@
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="68" t="s">
+      <c r="K58" s="66" t="s">
         <v>697</v>
       </c>
-      <c r="L58" s="71" t="s">
+      <c r="L58" s="69" t="s">
         <v>698</v>
       </c>
       <c r="M58" s="15"/>
@@ -9493,7 +8806,7 @@
       <c r="B59" s="26" t="s">
         <v>700</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D59" s="14"/>
@@ -9507,10 +8820,10 @@
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="68">
+      <c r="K59" s="66">
         <v>0.0</v>
       </c>
-      <c r="L59" s="69" t="s">
+      <c r="L59" s="67" t="s">
         <v>143</v>
       </c>
       <c r="M59" s="15"/>
@@ -9538,7 +8851,7 @@
       </c>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="69" t="s">
+      <c r="K60" s="67" t="s">
         <v>704</v>
       </c>
       <c r="L60" s="26" t="s">
@@ -9552,7 +8865,7 @@
       <c r="B61" s="26" t="s">
         <v>707</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D61" s="14"/>
@@ -9566,7 +8879,7 @@
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="15"/>
-      <c r="K61" s="68">
+      <c r="K61" s="66">
         <v>0.0</v>
       </c>
       <c r="L61" s="37" t="s">
@@ -9596,10 +8909,10 @@
       </c>
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
-      <c r="K62" s="68" t="s">
+      <c r="K62" s="66" t="s">
         <v>711</v>
       </c>
-      <c r="L62" s="69" t="s">
+      <c r="L62" s="67" t="s">
         <v>712</v>
       </c>
       <c r="M62" s="15"/>
@@ -9611,7 +8924,7 @@
       <c r="B63" s="26" t="s">
         <v>714</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D63" s="14"/>
@@ -9626,7 +8939,7 @@
       <c r="I63" s="14"/>
       <c r="J63" s="15"/>
       <c r="K63" s="43"/>
-      <c r="L63" s="69" t="s">
+      <c r="L63" s="67" t="s">
         <v>143</v>
       </c>
       <c r="M63" s="15"/>
@@ -9654,10 +8967,10 @@
       </c>
       <c r="I64" s="14"/>
       <c r="J64" s="15"/>
-      <c r="K64" s="68" t="s">
+      <c r="K64" s="66" t="s">
         <v>718</v>
       </c>
-      <c r="L64" s="69" t="s">
+      <c r="L64" s="67" t="s">
         <v>719</v>
       </c>
       <c r="M64" s="15"/>
@@ -9669,7 +8982,7 @@
       <c r="B65" s="26" t="s">
         <v>721</v>
       </c>
-      <c r="C65" s="70" t="s">
+      <c r="C65" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D65" s="14"/>
@@ -9711,10 +9024,10 @@
       </c>
       <c r="I66" s="14"/>
       <c r="J66" s="15"/>
-      <c r="K66" s="68" t="s">
+      <c r="K66" s="66" t="s">
         <v>725</v>
       </c>
-      <c r="L66" s="69" t="s">
+      <c r="L66" s="67" t="s">
         <v>726</v>
       </c>
       <c r="M66" s="15"/>
@@ -9726,7 +9039,7 @@
       <c r="B67" s="26" t="s">
         <v>728</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D67" s="14"/>
@@ -9740,10 +9053,10 @@
       </c>
       <c r="I67" s="14"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="68">
+      <c r="K67" s="66">
         <v>5.0</v>
       </c>
-      <c r="L67" s="69" t="s">
+      <c r="L67" s="67" t="s">
         <v>148</v>
       </c>
       <c r="M67" s="15"/>
@@ -9774,7 +9087,7 @@
       <c r="K68" s="52">
         <v>5.0</v>
       </c>
-      <c r="L68" s="69" t="s">
+      <c r="L68" s="67" t="s">
         <v>148</v>
       </c>
       <c r="M68" s="15"/>
@@ -9786,7 +9099,7 @@
       <c r="B69" s="26" t="s">
         <v>733</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D69" s="14"/>
@@ -9815,7 +9128,7 @@
       <c r="B70" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="C70" s="70" t="s">
+      <c r="C70" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D70" s="14"/>
@@ -9846,7 +9159,7 @@
       <c r="B71" s="26" t="s">
         <v>740</v>
       </c>
-      <c r="C71" s="70" t="s">
+      <c r="C71" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D71" s="14"/>
@@ -9875,7 +9188,7 @@
       <c r="B72" s="26" t="s">
         <v>742</v>
       </c>
-      <c r="C72" s="70" t="s">
+      <c r="C72" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D72" s="14"/>
@@ -9906,7 +9219,7 @@
       <c r="B73" s="26" t="s">
         <v>745</v>
       </c>
-      <c r="C73" s="70" t="s">
+      <c r="C73" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D73" s="14"/>
@@ -9935,7 +9248,7 @@
       <c r="B74" s="26" t="s">
         <v>747</v>
       </c>
-      <c r="C74" s="70" t="s">
+      <c r="C74" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D74" s="14"/>
@@ -10086,7 +9399,7 @@
       <c r="B79" s="26" t="s">
         <v>760</v>
       </c>
-      <c r="C79" s="70" t="s">
+      <c r="C79" s="68" t="s">
         <v>522</v>
       </c>
       <c r="D79" s="14"/>
@@ -10115,7 +9428,7 @@
       <c r="B80" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="C80" s="70" t="s">
+      <c r="C80" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D80" s="14"/>
@@ -10145,7 +9458,7 @@
       <c r="B81" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="C81" s="70" t="s">
+      <c r="C81" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D81" s="14"/>
@@ -10176,7 +9489,7 @@
       <c r="B82" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="C82" s="70" t="s">
+      <c r="C82" s="68" t="s">
         <v>525</v>
       </c>
       <c r="D82" s="14"/>
@@ -10201,126 +9514,126 @@
       <c r="M82" s="15"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="72" t="s">
+      <c r="A83" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="B83" s="73" t="s">
+      <c r="B83" s="26" t="s">
         <v>775</v>
       </c>
-      <c r="C83" s="70" t="s">
+      <c r="C83" s="68" t="s">
         <v>522</v>
       </c>
-      <c r="D83" s="74"/>
-      <c r="E83" s="66" t="s">
+      <c r="D83" s="14"/>
+      <c r="E83" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F83" s="74"/>
-      <c r="G83" s="74"/>
-      <c r="H83" s="66" t="s">
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I83" s="74"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="76">
+      <c r="I83" s="14"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="52">
         <v>3.0</v>
       </c>
-      <c r="L83" s="66" t="s">
+      <c r="L83" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M83" s="75"/>
+      <c r="M83" s="15"/>
     </row>
     <row r="84">
-      <c r="A84" s="72" t="s">
+      <c r="A84" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="B84" s="73" t="s">
+      <c r="B84" s="26" t="s">
         <v>777</v>
       </c>
-      <c r="C84" s="70" t="s">
+      <c r="C84" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D84" s="74"/>
-      <c r="E84" s="66" t="s">
+      <c r="D84" s="14"/>
+      <c r="E84" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F84" s="66" t="s">
+      <c r="F84" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="G84" s="74"/>
-      <c r="H84" s="66">
+      <c r="G84" s="14"/>
+      <c r="H84" s="2">
         <v>229.0</v>
       </c>
-      <c r="I84" s="74"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="66" t="s">
+      <c r="I84" s="14"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="L84" s="66" t="s">
+      <c r="L84" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="M84" s="75"/>
+      <c r="M84" s="15"/>
     </row>
     <row r="85">
-      <c r="A85" s="72" t="s">
+      <c r="A85" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="26" t="s">
         <v>782</v>
       </c>
-      <c r="C85" s="70" t="s">
+      <c r="C85" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D85" s="74"/>
-      <c r="E85" s="66" t="s">
+      <c r="D85" s="14"/>
+      <c r="E85" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F85" s="66" t="s">
+      <c r="F85" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="G85" s="74"/>
-      <c r="H85" s="66">
+      <c r="G85" s="14"/>
+      <c r="H85" s="2">
         <v>229.0</v>
       </c>
-      <c r="I85" s="74"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="77">
+      <c r="I85" s="14"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="37">
         <v>3.0</v>
       </c>
-      <c r="L85" s="77" t="s">
+      <c r="L85" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="M85" s="75"/>
+      <c r="M85" s="15"/>
     </row>
     <row r="86">
-      <c r="A86" s="72" t="s">
+      <c r="A86" s="12" t="s">
         <v>784</v>
       </c>
-      <c r="B86" s="73" t="s">
+      <c r="B86" s="26" t="s">
         <v>785</v>
       </c>
-      <c r="C86" s="70" t="s">
+      <c r="C86" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D86" s="74"/>
-      <c r="E86" s="66" t="s">
+      <c r="D86" s="14"/>
+      <c r="E86" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F86" s="66" t="s">
+      <c r="F86" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="G86" s="74"/>
-      <c r="H86" s="66">
+      <c r="G86" s="14"/>
+      <c r="H86" s="2">
         <v>229.0</v>
       </c>
-      <c r="I86" s="74"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="66" t="s">
+      <c r="I86" s="14"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="L86" s="66" t="s">
+      <c r="L86" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="M86" s="75"/>
+      <c r="M86" s="15"/>
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
@@ -10374,10 +9687,10 @@
       </c>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="76" t="s">
+      <c r="K88" s="52" t="s">
         <v>793</v>
       </c>
-      <c r="L88" s="66" t="s">
+      <c r="L88" s="2" t="s">
         <v>794</v>
       </c>
       <c r="M88" s="15"/>
@@ -10497,7 +9810,7 @@
       <c r="K92" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="L92" s="66" t="s">
+      <c r="L92" s="2" t="s">
         <v>806</v>
       </c>
       <c r="M92" s="15"/>
@@ -10630,7 +9943,7 @@
         <v>506</v>
       </c>
       <c r="C4" s="57"/>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="70" t="s">
         <v>811</v>
       </c>
       <c r="E4" s="14"/>
@@ -10661,7 +9974,7 @@
         <v>507</v>
       </c>
       <c r="C5" s="57"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="70" t="s">
         <v>812</v>
       </c>
       <c r="E5" s="14"/>
@@ -10692,7 +10005,7 @@
         <v>512</v>
       </c>
       <c r="C6" s="57"/>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="70" t="s">
         <v>813</v>
       </c>
       <c r="E6" s="14"/>
@@ -10724,7 +10037,7 @@
       </c>
       <c r="B7" s="57"/>
       <c r="C7" s="57"/>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="70" t="s">
         <v>814</v>
       </c>
       <c r="E7" s="14"/>
@@ -10754,17 +10067,17 @@
       <c r="A8" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="70" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="2" t="s">
         <v>517</v>
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="70" t="s">
         <v>816</v>
       </c>
       <c r="E9" s="14"/>
@@ -10830,13 +10143,13 @@
       <c r="E1" s="57" t="s">
         <v>818</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="71" t="s">
         <v>819</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="72" t="s">
         <v>396</v>
       </c>
     </row>
@@ -10847,17 +10160,17 @@
       <c r="B2" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="27" t="s">
         <v>823</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="73" t="s">
         <v>824</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>825</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="2" t="s">
         <v>826</v>
       </c>
       <c r="H2" s="15"/>
@@ -10869,17 +10182,17 @@
       <c r="B3" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="27" t="s">
         <v>829</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="74" t="s">
         <v>830</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>831</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="2" t="s">
         <v>832</v>
       </c>
       <c r="H3" s="15"/>
@@ -10891,17 +10204,17 @@
       <c r="B4" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="74" t="s">
         <v>835</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>836</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="2" t="s">
         <v>837</v>
       </c>
       <c r="H4" s="15"/>
@@ -10913,17 +10226,17 @@
       <c r="B5" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C5" s="69"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="73" t="s">
         <v>840</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="2" t="s">
         <v>842</v>
       </c>
       <c r="H5" s="15"/>
@@ -10935,17 +10248,17 @@
       <c r="B6" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="73" t="s">
         <v>845</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="2" t="s">
         <v>847</v>
       </c>
       <c r="H6" s="15"/>
@@ -10957,17 +10270,17 @@
       <c r="B7" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="73" t="s">
         <v>850</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>851</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="2" t="s">
         <v>852</v>
       </c>
       <c r="H7" s="15"/>
@@ -10979,17 +10292,17 @@
       <c r="B8" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="73" t="s">
         <v>855</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>856</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="2" t="s">
         <v>857</v>
       </c>
       <c r="H8" s="15"/>
@@ -11001,17 +10314,17 @@
       <c r="B9" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="73" t="s">
         <v>860</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>861</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="2" t="s">
         <v>862</v>
       </c>
       <c r="H9" s="15"/>
@@ -11023,17 +10336,17 @@
       <c r="B10" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="73" t="s">
         <v>865</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>866</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="2" t="s">
         <v>867</v>
       </c>
       <c r="H10" s="15"/>
@@ -11045,17 +10358,17 @@
       <c r="B11" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="74" t="s">
         <v>870</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>871</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="2" t="s">
         <v>872</v>
       </c>
       <c r="H11" s="15"/>
@@ -11067,17 +10380,17 @@
       <c r="B12" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="73" t="s">
         <v>875</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>876</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="2" t="s">
         <v>877</v>
       </c>
       <c r="H12" s="15"/>
@@ -11089,17 +10402,17 @@
       <c r="B13" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C13" s="66"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="74" t="s">
         <v>880</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>881</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="2" t="s">
         <v>882</v>
       </c>
       <c r="H13" s="15"/>
@@ -11111,17 +10424,17 @@
       <c r="B14" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="C14" s="66"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="74" t="s">
         <v>885</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>886</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="2" t="s">
         <v>887</v>
       </c>
       <c r="H14" s="15"/>
@@ -11133,17 +10446,17 @@
       <c r="B15" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="74" t="s">
         <v>890</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>891</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="2" t="s">
         <v>892</v>
       </c>
       <c r="H15" s="15"/>
@@ -11155,17 +10468,17 @@
       <c r="B16" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="74" t="s">
         <v>895</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>896</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="2" t="s">
         <v>897</v>
       </c>
       <c r="H16" s="15"/>
@@ -11177,7 +10490,7 @@
       <c r="B17" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="12" t="s">
         <v>480</v>
       </c>
@@ -11187,7 +10500,7 @@
       <c r="F17" s="27" t="s">
         <v>901</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="2" t="s">
         <v>902</v>
       </c>
       <c r="H17" s="15"/>
@@ -11199,7 +10512,7 @@
       <c r="B18" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="C18" s="66"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="12" t="s">
         <v>484</v>
       </c>
@@ -11209,7 +10522,7 @@
       <c r="F18" s="27" t="s">
         <v>906</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="2" t="s">
         <v>907</v>
       </c>
       <c r="H18" s="15"/>
@@ -11247,34 +10560,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="75" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="37" t="s">
         <v>912</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="75" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="37" t="s">
         <v>914</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="75" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="37" t="s">
         <v>916</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="75" t="s">
         <v>917</v>
       </c>
     </row>
@@ -11300,10 +10613,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>918</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="76" t="s">
         <v>919</v>
       </c>
       <c r="C1" s="15"/>
@@ -11335,10 +10648,10 @@
       <c r="A2" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="77" t="s">
         <v>921</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -11367,10 +10680,10 @@
       <c r="A3" s="19" t="s">
         <v>922</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="79" t="s">
         <v>923</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -11399,7 +10712,7 @@
       <c r="A4" s="19" t="s">
         <v>924</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="79" t="s">
         <v>925</v>
       </c>
       <c r="C4" s="15"/>
@@ -11431,7 +10744,7 @@
       <c r="A5" s="19" t="s">
         <v>926</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="79" t="s">
         <v>927</v>
       </c>
       <c r="C5" s="15"/>
@@ -11463,7 +10776,7 @@
       <c r="A6" s="19" t="s">
         <v>928</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="79" t="s">
         <v>929</v>
       </c>
       <c r="C6" s="15"/>
@@ -11495,7 +10808,7 @@
       <c r="A7" s="19" t="s">
         <v>930</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="79" t="s">
         <v>931</v>
       </c>
       <c r="C7" s="15"/>
@@ -11527,7 +10840,7 @@
       <c r="A8" s="19" t="s">
         <v>932</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="79" t="s">
         <v>933</v>
       </c>
       <c r="C8" s="15"/>
@@ -11559,10 +10872,10 @@
       <c r="A9" s="19" t="s">
         <v>934</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="79" t="s">
         <v>935</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -11591,10 +10904,10 @@
       <c r="A10" s="19" t="s">
         <v>936</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="79" t="s">
         <v>937</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -11623,7 +10936,7 @@
       <c r="A11" s="19" t="s">
         <v>938</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="79" t="s">
         <v>939</v>
       </c>
       <c r="C11" s="15"/>
@@ -11655,10 +10968,10 @@
       <c r="A12" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="80" t="s">
         <v>941</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>

--- a/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="934">
   <si>
     <t>id</t>
   </si>
@@ -8261,8 +8261,8 @@
         <v>588</v>
       </c>
       <c r="G8" s="45"/>
-      <c r="H8" s="3">
-        <v>229.0</v>
+      <c r="H8" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
@@ -8352,8 +8352,8 @@
         <v>599</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="14">
-        <v>229.0</v>
+      <c r="H11" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
